--- a/notebooks/CAD/input/CAD_DEE50_individuals.xlsx
+++ b/notebooks/CAD/input/CAD_DEE50_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CAD/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8DB74A-80C0-E345-A9F0-0C856D3B6329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F519690-C087-654A-A497-00C16C6BD6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="29400" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="65740" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>OMIM:616457</t>
   </si>
   <si>
-    <t xml:space="preserve">Developmental and epileptic encephalopathy 50	616457	AR	3	</t>
-  </si>
-  <si>
     <t>HGNC:1424</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>HP:0002014</t>
+  </si>
+  <si>
+    <t>Developmental and epileptic encephalopathy 50</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>24</v>
@@ -760,25 +760,25 @@
         <v>31</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AJ1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
@@ -819,198 +819,198 @@
         <v>34</v>
       </c>
       <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>41</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>45</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" t="s">
-        <v>58</v>
-      </c>
       <c r="AH2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
       <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
         <v>75</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>76</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" t="s">
-        <v>78</v>
-      </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
